--- a/Bizmate/tagWordsNew.xlsx
+++ b/Bizmate/tagWordsNew.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="1260">
   <si>
     <t>Word</t>
   </si>
@@ -2585,6 +2585,9 @@
   </si>
   <si>
     <t>Ninja</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>Nose</t>
@@ -4148,7 +4151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1256"/>
+  <dimension ref="A1:F1257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21222,7 +21225,7 @@
         <v>0</v>
       </c>
       <c r="C854" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D854" t="b">
         <v>0</v>
@@ -21242,7 +21245,7 @@
         <v>0</v>
       </c>
       <c r="C855" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D855" t="b">
         <v>0</v>
@@ -21262,7 +21265,7 @@
         <v>0</v>
       </c>
       <c r="C856" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D856" t="b">
         <v>0</v>
@@ -21282,7 +21285,7 @@
         <v>0</v>
       </c>
       <c r="C857" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D857" t="b">
         <v>0</v>
@@ -21305,7 +21308,7 @@
         <v>0</v>
       </c>
       <c r="D858" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E858" t="b">
         <v>0</v>
@@ -21362,10 +21365,10 @@
         <v>0</v>
       </c>
       <c r="C861" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D861" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E861" t="b">
         <v>0</v>
@@ -21382,7 +21385,7 @@
         <v>0</v>
       </c>
       <c r="C862" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D862" t="b">
         <v>0</v>
@@ -21402,7 +21405,7 @@
         <v>0</v>
       </c>
       <c r="C863" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D863" t="b">
         <v>0</v>
@@ -21442,10 +21445,10 @@
         <v>0</v>
       </c>
       <c r="C865" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D865" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E865" t="b">
         <v>0</v>
@@ -21465,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="D866" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E866" t="b">
         <v>0</v>
@@ -21482,7 +21485,7 @@
         <v>0</v>
       </c>
       <c r="C867" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D867" t="b">
         <v>0</v>
@@ -21522,7 +21525,7 @@
         <v>0</v>
       </c>
       <c r="C869" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D869" t="b">
         <v>0</v>
@@ -21531,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="F869" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:6">
@@ -21545,13 +21548,13 @@
         <v>0</v>
       </c>
       <c r="D870" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E870" t="b">
         <v>0</v>
       </c>
       <c r="F870" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:6">
@@ -21562,10 +21565,10 @@
         <v>0</v>
       </c>
       <c r="C871" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D871" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E871" t="b">
         <v>0</v>
@@ -21582,10 +21585,10 @@
         <v>0</v>
       </c>
       <c r="C872" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D872" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E872" t="b">
         <v>0</v>
@@ -21602,10 +21605,10 @@
         <v>0</v>
       </c>
       <c r="C873" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D873" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E873" t="b">
         <v>0</v>
@@ -21662,10 +21665,10 @@
         <v>0</v>
       </c>
       <c r="C876" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D876" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E876" t="b">
         <v>0</v>
@@ -21685,7 +21688,7 @@
         <v>0</v>
       </c>
       <c r="D877" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E877" t="b">
         <v>0</v>
@@ -21702,7 +21705,7 @@
         <v>0</v>
       </c>
       <c r="C878" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D878" t="b">
         <v>0</v>
@@ -21762,7 +21765,7 @@
         <v>0</v>
       </c>
       <c r="C881" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D881" t="b">
         <v>0</v>
@@ -21782,7 +21785,7 @@
         <v>0</v>
       </c>
       <c r="C882" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D882" t="b">
         <v>0</v>
@@ -21802,7 +21805,7 @@
         <v>0</v>
       </c>
       <c r="C883" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D883" t="b">
         <v>0</v>
@@ -21811,7 +21814,7 @@
         <v>0</v>
       </c>
       <c r="F883" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:6">
@@ -21822,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="C884" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D884" t="b">
         <v>0</v>
@@ -21831,7 +21834,7 @@
         <v>0</v>
       </c>
       <c r="F884" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:6">
@@ -21842,7 +21845,7 @@
         <v>0</v>
       </c>
       <c r="C885" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D885" t="b">
         <v>0</v>
@@ -21862,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="C886" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D886" t="b">
         <v>0</v>
@@ -21882,7 +21885,7 @@
         <v>0</v>
       </c>
       <c r="C887" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D887" t="b">
         <v>0</v>
@@ -21891,7 +21894,7 @@
         <v>0</v>
       </c>
       <c r="F887" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:6">
@@ -21911,7 +21914,7 @@
         <v>0</v>
       </c>
       <c r="F888" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:6">
@@ -21922,7 +21925,7 @@
         <v>0</v>
       </c>
       <c r="C889" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D889" t="b">
         <v>0</v>
@@ -21962,7 +21965,7 @@
         <v>0</v>
       </c>
       <c r="C891" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D891" t="b">
         <v>0</v>
@@ -21971,7 +21974,7 @@
         <v>0</v>
       </c>
       <c r="F891" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -21982,7 +21985,7 @@
         <v>0</v>
       </c>
       <c r="C892" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D892" t="b">
         <v>0</v>
@@ -21991,7 +21994,7 @@
         <v>0</v>
       </c>
       <c r="F892" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -22022,7 +22025,7 @@
         <v>0</v>
       </c>
       <c r="C894" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D894" t="b">
         <v>0</v>
@@ -22045,7 +22048,7 @@
         <v>0</v>
       </c>
       <c r="D895" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E895" t="b">
         <v>0</v>
@@ -22065,7 +22068,7 @@
         <v>0</v>
       </c>
       <c r="D896" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E896" t="b">
         <v>0</v>
@@ -22082,7 +22085,7 @@
         <v>0</v>
       </c>
       <c r="C897" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D897" t="b">
         <v>0</v>
@@ -22122,7 +22125,7 @@
         <v>0</v>
       </c>
       <c r="C899" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D899" t="b">
         <v>0</v>
@@ -22131,7 +22134,7 @@
         <v>0</v>
       </c>
       <c r="F899" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -22151,7 +22154,7 @@
         <v>0</v>
       </c>
       <c r="F900" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -22165,7 +22168,7 @@
         <v>0</v>
       </c>
       <c r="D901" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E901" t="b">
         <v>0</v>
@@ -22202,10 +22205,10 @@
         <v>0</v>
       </c>
       <c r="C903" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D903" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E903" t="b">
         <v>0</v>
@@ -22242,7 +22245,7 @@
         <v>0</v>
       </c>
       <c r="C905" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D905" t="b">
         <v>0</v>
@@ -22262,7 +22265,7 @@
         <v>0</v>
       </c>
       <c r="C906" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D906" t="b">
         <v>0</v>
@@ -22342,7 +22345,7 @@
         <v>0</v>
       </c>
       <c r="C910" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D910" t="b">
         <v>0</v>
@@ -22362,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="C911" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D911" t="b">
         <v>0</v>
@@ -22402,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="C913" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D913" t="b">
         <v>0</v>
@@ -22411,7 +22414,7 @@
         <v>0</v>
       </c>
       <c r="F913" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:6">
@@ -22431,7 +22434,7 @@
         <v>0</v>
       </c>
       <c r="F914" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:6">
@@ -22442,7 +22445,7 @@
         <v>0</v>
       </c>
       <c r="C915" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D915" t="b">
         <v>0</v>
@@ -22462,10 +22465,10 @@
         <v>0</v>
       </c>
       <c r="C916" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D916" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E916" t="b">
         <v>0</v>
@@ -22482,10 +22485,10 @@
         <v>0</v>
       </c>
       <c r="C917" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D917" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E917" t="b">
         <v>0</v>
@@ -22522,7 +22525,7 @@
         <v>0</v>
       </c>
       <c r="C919" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D919" t="b">
         <v>0</v>
@@ -22551,7 +22554,7 @@
         <v>0</v>
       </c>
       <c r="F920" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:6">
@@ -22562,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="C921" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D921" t="b">
         <v>0</v>
@@ -22571,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="F921" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:6">
@@ -22602,10 +22605,10 @@
         <v>0</v>
       </c>
       <c r="C923" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D923" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E923" t="b">
         <v>0</v>
@@ -22622,16 +22625,16 @@
         <v>0</v>
       </c>
       <c r="C924" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D924" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E924" t="b">
         <v>0</v>
       </c>
       <c r="F924" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -22642,7 +22645,7 @@
         <v>0</v>
       </c>
       <c r="C925" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D925" t="b">
         <v>0</v>
@@ -22651,7 +22654,7 @@
         <v>0</v>
       </c>
       <c r="F925" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:6">
@@ -22882,7 +22885,7 @@
         <v>0</v>
       </c>
       <c r="C937" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D937" t="b">
         <v>0</v>
@@ -22922,10 +22925,10 @@
         <v>0</v>
       </c>
       <c r="C939" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D939" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E939" t="b">
         <v>0</v>
@@ -22942,10 +22945,10 @@
         <v>0</v>
       </c>
       <c r="C940" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D940" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E940" t="b">
         <v>0</v>
@@ -23022,7 +23025,7 @@
         <v>0</v>
       </c>
       <c r="C944" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D944" t="b">
         <v>0</v>
@@ -23082,7 +23085,7 @@
         <v>0</v>
       </c>
       <c r="C947" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D947" t="b">
         <v>0</v>
@@ -23102,7 +23105,7 @@
         <v>0</v>
       </c>
       <c r="C948" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D948" t="b">
         <v>0</v>
@@ -23122,7 +23125,7 @@
         <v>0</v>
       </c>
       <c r="C949" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D949" t="b">
         <v>0</v>
@@ -23145,7 +23148,7 @@
         <v>1</v>
       </c>
       <c r="D950" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E950" t="b">
         <v>0</v>
@@ -23165,7 +23168,7 @@
         <v>1</v>
       </c>
       <c r="D951" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E951" t="b">
         <v>0</v>
@@ -23222,7 +23225,7 @@
         <v>0</v>
       </c>
       <c r="C954" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D954" t="b">
         <v>0</v>
@@ -23231,7 +23234,7 @@
         <v>0</v>
       </c>
       <c r="F954" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:6">
@@ -23262,7 +23265,7 @@
         <v>0</v>
       </c>
       <c r="C956" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D956" t="b">
         <v>0</v>
@@ -23271,7 +23274,7 @@
         <v>0</v>
       </c>
       <c r="F956" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:6">
@@ -23402,10 +23405,10 @@
         <v>0</v>
       </c>
       <c r="C963" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D963" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E963" t="b">
         <v>0</v>
@@ -23422,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="C964" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D964" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E964" t="b">
         <v>0</v>
@@ -23442,7 +23445,7 @@
         <v>0</v>
       </c>
       <c r="C965" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D965" t="b">
         <v>0</v>
@@ -23471,7 +23474,7 @@
         <v>0</v>
       </c>
       <c r="F966" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:6">
@@ -23482,7 +23485,7 @@
         <v>0</v>
       </c>
       <c r="C967" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D967" t="b">
         <v>0</v>
@@ -23491,7 +23494,7 @@
         <v>0</v>
       </c>
       <c r="F967" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:6">
@@ -23502,10 +23505,10 @@
         <v>0</v>
       </c>
       <c r="C968" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D968" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E968" t="b">
         <v>0</v>
@@ -23522,10 +23525,10 @@
         <v>0</v>
       </c>
       <c r="C969" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D969" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E969" t="b">
         <v>0</v>
@@ -23702,7 +23705,7 @@
         <v>0</v>
       </c>
       <c r="C978" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D978" t="b">
         <v>0</v>
@@ -23722,7 +23725,7 @@
         <v>0</v>
       </c>
       <c r="C979" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D979" t="b">
         <v>0</v>
@@ -23762,10 +23765,10 @@
         <v>0</v>
       </c>
       <c r="C981" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D981" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E981" t="b">
         <v>0</v>
@@ -23782,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="C982" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D982" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E982" t="b">
         <v>0</v>
@@ -23859,10 +23862,10 @@
         <v>990</v>
       </c>
       <c r="B986" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C986" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D986" t="b">
         <v>0</v>
@@ -23879,10 +23882,10 @@
         <v>991</v>
       </c>
       <c r="B987" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C987" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D987" t="b">
         <v>0</v>
@@ -23942,7 +23945,7 @@
         <v>0</v>
       </c>
       <c r="C990" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D990" t="b">
         <v>0</v>
@@ -24022,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="C994" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D994" t="b">
         <v>0</v>
@@ -24062,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="C996" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D996" t="b">
         <v>0</v>
@@ -24071,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="F996" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:6">
@@ -24082,7 +24085,7 @@
         <v>0</v>
       </c>
       <c r="C997" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D997" t="b">
         <v>0</v>
@@ -24091,7 +24094,7 @@
         <v>0</v>
       </c>
       <c r="F997" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:6">
@@ -24142,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="C1000" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1000" t="b">
         <v>0</v>
@@ -24151,7 +24154,7 @@
         <v>0</v>
       </c>
       <c r="F1000" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:6">
@@ -24162,7 +24165,7 @@
         <v>0</v>
       </c>
       <c r="C1001" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1001" t="b">
         <v>0</v>
@@ -24171,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="F1001" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1002" spans="1:6">
@@ -24182,10 +24185,10 @@
         <v>0</v>
       </c>
       <c r="C1002" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1002" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1002" t="b">
         <v>0</v>
@@ -24202,10 +24205,10 @@
         <v>0</v>
       </c>
       <c r="C1003" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1003" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1003" t="b">
         <v>0</v>
@@ -24239,10 +24242,10 @@
         <v>1009</v>
       </c>
       <c r="B1005" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1005" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1005" t="b">
         <v>0</v>
@@ -24279,10 +24282,10 @@
         <v>1011</v>
       </c>
       <c r="B1007" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1007" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1007" t="b">
         <v>0</v>
@@ -24319,10 +24322,10 @@
         <v>1013</v>
       </c>
       <c r="B1009" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1009" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1009" t="b">
         <v>0</v>
@@ -24339,10 +24342,10 @@
         <v>1014</v>
       </c>
       <c r="B1010" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1010" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1010" t="b">
         <v>0</v>
@@ -24382,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="C1012" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1012" t="b">
         <v>0</v>
@@ -24405,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="D1013" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1013" t="b">
         <v>0</v>
@@ -24422,10 +24425,10 @@
         <v>0</v>
       </c>
       <c r="C1014" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1014" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1014" t="b">
         <v>0</v>
@@ -24542,7 +24545,7 @@
         <v>0</v>
       </c>
       <c r="C1020" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1020" t="b">
         <v>0</v>
@@ -24565,7 +24568,7 @@
         <v>0</v>
       </c>
       <c r="D1021" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1021" t="b">
         <v>0</v>
@@ -24585,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="D1022" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1022" t="b">
         <v>0</v>
@@ -24611,7 +24614,7 @@
         <v>0</v>
       </c>
       <c r="F1023" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -24631,7 +24634,7 @@
         <v>0</v>
       </c>
       <c r="F1024" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1025" spans="1:6">
@@ -24642,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="C1025" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1025" t="b">
         <v>0</v>
@@ -24682,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="C1027" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1027" t="b">
         <v>0</v>
@@ -24702,7 +24705,7 @@
         <v>0</v>
       </c>
       <c r="C1028" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1028" t="b">
         <v>0</v>
@@ -24722,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="C1029" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1029" t="b">
         <v>0</v>
@@ -24731,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="F1029" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:6">
@@ -24742,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="C1030" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1030" t="b">
         <v>0</v>
@@ -24751,7 +24754,7 @@
         <v>0</v>
       </c>
       <c r="F1030" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:6">
@@ -24762,7 +24765,7 @@
         <v>0</v>
       </c>
       <c r="C1031" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1031" t="b">
         <v>0</v>
@@ -24802,7 +24805,7 @@
         <v>0</v>
       </c>
       <c r="C1033" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1033" t="b">
         <v>0</v>
@@ -24822,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="C1034" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1034" t="b">
         <v>0</v>
@@ -24845,7 +24848,7 @@
         <v>0</v>
       </c>
       <c r="D1035" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1035" t="b">
         <v>0</v>
@@ -24862,10 +24865,10 @@
         <v>0</v>
       </c>
       <c r="C1036" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1036" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1036" t="b">
         <v>0</v>
@@ -24902,10 +24905,10 @@
         <v>0</v>
       </c>
       <c r="C1038" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1038" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1038" t="b">
         <v>0</v>
@@ -24925,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="D1039" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1039" t="b">
         <v>0</v>
       </c>
       <c r="F1039" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:6">
@@ -24951,7 +24954,7 @@
         <v>0</v>
       </c>
       <c r="F1040" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:6">
@@ -24962,7 +24965,7 @@
         <v>0</v>
       </c>
       <c r="C1041" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1041" t="b">
         <v>0</v>
@@ -24982,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="C1042" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1042" t="b">
         <v>0</v>
@@ -25005,7 +25008,7 @@
         <v>0</v>
       </c>
       <c r="D1043" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1043" t="b">
         <v>0</v>
@@ -25022,10 +25025,10 @@
         <v>0</v>
       </c>
       <c r="C1044" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1044" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1044" t="b">
         <v>0</v>
@@ -25036,13 +25039,13 @@
     </row>
     <row r="1045" spans="1:6">
       <c r="A1045" t="s">
-        <v>4</v>
+        <v>1049</v>
       </c>
       <c r="B1045" t="b">
         <v>0</v>
       </c>
       <c r="C1045" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1045" t="b">
         <v>0</v>
@@ -25056,13 +25059,13 @@
     </row>
     <row r="1046" spans="1:6">
       <c r="A1046" t="s">
-        <v>1049</v>
+        <v>4</v>
       </c>
       <c r="B1046" t="b">
         <v>0</v>
       </c>
       <c r="C1046" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1046" t="b">
         <v>0</v>
@@ -25082,10 +25085,10 @@
         <v>0</v>
       </c>
       <c r="C1047" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1047" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1047" t="b">
         <v>0</v>
@@ -25102,10 +25105,10 @@
         <v>0</v>
       </c>
       <c r="C1048" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1048" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1048" t="b">
         <v>0</v>
@@ -25122,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="C1049" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1049" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1049" t="b">
         <v>0</v>
@@ -25145,7 +25148,7 @@
         <v>0</v>
       </c>
       <c r="D1050" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1050" t="b">
         <v>0</v>
@@ -25162,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="C1051" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1051" t="b">
         <v>0</v>
@@ -25199,10 +25202,10 @@
         <v>1056</v>
       </c>
       <c r="B1053" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1053" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1053" t="b">
         <v>0</v>
@@ -25219,13 +25222,13 @@
         <v>1057</v>
       </c>
       <c r="B1054" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1054" t="b">
         <v>0</v>
       </c>
       <c r="D1054" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1054" t="b">
         <v>0</v>
@@ -25245,7 +25248,7 @@
         <v>0</v>
       </c>
       <c r="D1055" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1055" t="b">
         <v>0</v>
@@ -25265,7 +25268,7 @@
         <v>0</v>
       </c>
       <c r="D1056" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1056" t="b">
         <v>0</v>
@@ -25285,13 +25288,13 @@
         <v>0</v>
       </c>
       <c r="D1057" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1057" t="b">
         <v>0</v>
       </c>
       <c r="F1057" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:6">
@@ -25305,13 +25308,13 @@
         <v>0</v>
       </c>
       <c r="D1058" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1058" t="b">
         <v>0</v>
       </c>
       <c r="F1058" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:6">
@@ -25319,13 +25322,13 @@
         <v>1062</v>
       </c>
       <c r="B1059" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1059" t="b">
         <v>0</v>
       </c>
       <c r="D1059" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1059" t="b">
         <v>0</v>
@@ -25359,10 +25362,10 @@
         <v>1064</v>
       </c>
       <c r="B1061" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1061" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1061" t="b">
         <v>0</v>
@@ -25382,7 +25385,7 @@
         <v>0</v>
       </c>
       <c r="C1062" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1062" t="b">
         <v>0</v>
@@ -25402,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="C1063" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1063" t="b">
         <v>0</v>
@@ -25479,10 +25482,10 @@
         <v>1070</v>
       </c>
       <c r="B1067" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1067" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1067" t="b">
         <v>0</v>
@@ -25499,10 +25502,10 @@
         <v>1071</v>
       </c>
       <c r="B1068" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1068" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1068" t="b">
         <v>0</v>
@@ -25522,10 +25525,10 @@
         <v>0</v>
       </c>
       <c r="C1069" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1069" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1069" t="b">
         <v>0</v>
@@ -25582,10 +25585,10 @@
         <v>0</v>
       </c>
       <c r="C1072" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1072" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1072" t="b">
         <v>0</v>
@@ -25622,7 +25625,7 @@
         <v>0</v>
       </c>
       <c r="C1074" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1074" t="b">
         <v>0</v>
@@ -25631,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="F1074" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:6">
@@ -25642,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="C1075" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1075" t="b">
         <v>0</v>
@@ -25651,7 +25654,7 @@
         <v>0</v>
       </c>
       <c r="F1075" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:6">
@@ -25699,10 +25702,10 @@
         <v>1081</v>
       </c>
       <c r="B1078" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1078" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1078" t="b">
         <v>0</v>
@@ -25719,10 +25722,10 @@
         <v>1082</v>
       </c>
       <c r="B1079" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1079" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1079" t="b">
         <v>0</v>
@@ -25742,10 +25745,10 @@
         <v>0</v>
       </c>
       <c r="C1080" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1080" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1080" t="b">
         <v>0</v>
@@ -25762,10 +25765,10 @@
         <v>0</v>
       </c>
       <c r="C1081" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1081" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1081" t="b">
         <v>0</v>
@@ -25862,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C1086" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1086" t="b">
         <v>0</v>
@@ -25882,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="C1087" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1087" t="b">
         <v>0</v>
@@ -25902,10 +25905,10 @@
         <v>0</v>
       </c>
       <c r="C1088" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1088" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1088" t="b">
         <v>0</v>
@@ -25922,10 +25925,10 @@
         <v>0</v>
       </c>
       <c r="C1089" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1089" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1089" t="b">
         <v>0</v>
@@ -25939,10 +25942,10 @@
         <v>1093</v>
       </c>
       <c r="B1090" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1090" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1090" t="b">
         <v>0</v>
@@ -25956,13 +25959,13 @@
     </row>
     <row r="1091" spans="1:6">
       <c r="A1091" t="s">
-        <v>2</v>
+        <v>1094</v>
       </c>
       <c r="B1091" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1091" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1091" t="b">
         <v>0</v>
@@ -25976,7 +25979,7 @@
     </row>
     <row r="1092" spans="1:6">
       <c r="A1092" t="s">
-        <v>1094</v>
+        <v>2</v>
       </c>
       <c r="B1092" t="b">
         <v>0</v>
@@ -26002,7 +26005,7 @@
         <v>0</v>
       </c>
       <c r="C1093" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1093" t="b">
         <v>0</v>
@@ -26011,7 +26014,7 @@
         <v>0</v>
       </c>
       <c r="F1093" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:6">
@@ -26031,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F1094" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:6">
@@ -26042,7 +26045,7 @@
         <v>0</v>
       </c>
       <c r="C1095" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1095" t="b">
         <v>0</v>
@@ -26062,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="C1096" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1096" t="b">
         <v>0</v>
@@ -26082,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="C1097" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1097" t="b">
         <v>0</v>
@@ -26122,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="C1099" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1099" t="b">
         <v>0</v>
@@ -26131,7 +26134,7 @@
         <v>0</v>
       </c>
       <c r="F1099" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:6">
@@ -26142,7 +26145,7 @@
         <v>0</v>
       </c>
       <c r="C1100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1100" t="b">
         <v>0</v>
@@ -26151,7 +26154,7 @@
         <v>0</v>
       </c>
       <c r="F1100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:6">
@@ -26182,7 +26185,7 @@
         <v>0</v>
       </c>
       <c r="C1102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1102" t="b">
         <v>0</v>
@@ -26219,7 +26222,7 @@
         <v>1106</v>
       </c>
       <c r="B1104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1104" t="b">
         <v>0</v>
@@ -26239,10 +26242,10 @@
         <v>1107</v>
       </c>
       <c r="B1105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1105" t="b">
         <v>0</v>
@@ -26262,7 +26265,7 @@
         <v>0</v>
       </c>
       <c r="C1106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1106" t="b">
         <v>0</v>
@@ -26271,7 +26274,7 @@
         <v>0</v>
       </c>
       <c r="F1106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:6">
@@ -26285,13 +26288,13 @@
         <v>0</v>
       </c>
       <c r="D1107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1107" t="b">
         <v>0</v>
       </c>
       <c r="F1107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:6">
@@ -26305,13 +26308,13 @@
         <v>0</v>
       </c>
       <c r="D1108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1108" t="b">
         <v>0</v>
       </c>
       <c r="F1108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:6">
@@ -26331,7 +26334,7 @@
         <v>0</v>
       </c>
       <c r="F1109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:6">
@@ -26405,7 +26408,7 @@
         <v>0</v>
       </c>
       <c r="D1113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1113" t="b">
         <v>0</v>
@@ -26445,7 +26448,7 @@
         <v>0</v>
       </c>
       <c r="D1115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1115" t="b">
         <v>0</v>
@@ -26502,7 +26505,7 @@
         <v>0</v>
       </c>
       <c r="C1118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1118" t="b">
         <v>0</v>
@@ -26622,10 +26625,10 @@
         <v>0</v>
       </c>
       <c r="C1124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1124" t="b">
         <v>0</v>
@@ -26642,10 +26645,10 @@
         <v>0</v>
       </c>
       <c r="C1125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1125" t="b">
         <v>0</v>
@@ -26662,7 +26665,7 @@
         <v>0</v>
       </c>
       <c r="C1126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1126" t="b">
         <v>0</v>
@@ -26705,7 +26708,7 @@
         <v>0</v>
       </c>
       <c r="D1128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1128" t="b">
         <v>0</v>
@@ -26725,7 +26728,7 @@
         <v>0</v>
       </c>
       <c r="D1129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1129" t="b">
         <v>0</v>
@@ -26765,7 +26768,7 @@
         <v>0</v>
       </c>
       <c r="D1131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1131" t="b">
         <v>0</v>
@@ -26785,7 +26788,7 @@
         <v>0</v>
       </c>
       <c r="D1132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1132" t="b">
         <v>0</v>
@@ -26811,7 +26814,7 @@
         <v>0</v>
       </c>
       <c r="F1133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:6">
@@ -26822,7 +26825,7 @@
         <v>0</v>
       </c>
       <c r="C1134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1134" t="b">
         <v>0</v>
@@ -26831,7 +26834,7 @@
         <v>0</v>
       </c>
       <c r="F1134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1135" spans="1:6">
@@ -26842,7 +26845,7 @@
         <v>0</v>
       </c>
       <c r="C1135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1135" t="b">
         <v>0</v>
@@ -26851,7 +26854,7 @@
         <v>0</v>
       </c>
       <c r="F1135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:6">
@@ -26885,13 +26888,13 @@
         <v>0</v>
       </c>
       <c r="D1137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1137" t="b">
         <v>0</v>
       </c>
       <c r="F1137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1138" spans="1:6">
@@ -26922,10 +26925,10 @@
         <v>0</v>
       </c>
       <c r="C1139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1139" t="b">
         <v>0</v>
@@ -26942,7 +26945,7 @@
         <v>0</v>
       </c>
       <c r="C1140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1140" t="b">
         <v>0</v>
@@ -26962,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="C1141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1141" t="b">
         <v>0</v>
@@ -27002,7 +27005,7 @@
         <v>0</v>
       </c>
       <c r="C1143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1143" t="b">
         <v>0</v>
@@ -27025,7 +27028,7 @@
         <v>0</v>
       </c>
       <c r="D1144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1144" t="b">
         <v>0</v>
@@ -27042,10 +27045,10 @@
         <v>0</v>
       </c>
       <c r="C1145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1145" t="b">
         <v>0</v>
@@ -27182,7 +27185,7 @@
         <v>0</v>
       </c>
       <c r="C1152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1152" t="b">
         <v>0</v>
@@ -27199,7 +27202,7 @@
         <v>1155</v>
       </c>
       <c r="B1153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1153" t="b">
         <v>0</v>
@@ -27219,10 +27222,10 @@
         <v>1156</v>
       </c>
       <c r="B1154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1154" t="b">
         <v>0</v>
@@ -27242,10 +27245,10 @@
         <v>0</v>
       </c>
       <c r="C1155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1155" t="b">
         <v>0</v>
@@ -27262,10 +27265,10 @@
         <v>0</v>
       </c>
       <c r="C1156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1156" t="b">
         <v>0</v>
@@ -27282,7 +27285,7 @@
         <v>0</v>
       </c>
       <c r="C1157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1157" t="b">
         <v>0</v>
@@ -27322,7 +27325,7 @@
         <v>0</v>
       </c>
       <c r="C1159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1159" t="b">
         <v>0</v>
@@ -27342,10 +27345,10 @@
         <v>0</v>
       </c>
       <c r="C1160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1160" t="b">
         <v>0</v>
@@ -27365,7 +27368,7 @@
         <v>0</v>
       </c>
       <c r="D1161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1161" t="b">
         <v>0</v>
@@ -27382,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="C1162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1162" t="b">
         <v>0</v>
@@ -27442,10 +27445,10 @@
         <v>0</v>
       </c>
       <c r="C1165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1165" t="b">
         <v>0</v>
@@ -27462,10 +27465,10 @@
         <v>0</v>
       </c>
       <c r="C1166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1166" t="b">
         <v>0</v>
@@ -27482,7 +27485,7 @@
         <v>0</v>
       </c>
       <c r="C1167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1167" t="b">
         <v>0</v>
@@ -27502,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="C1168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1168" t="b">
         <v>0</v>
@@ -27522,10 +27525,10 @@
         <v>0</v>
       </c>
       <c r="C1169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1169" t="b">
         <v>0</v>
@@ -27545,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="D1170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1170" t="b">
         <v>0</v>
@@ -27642,7 +27645,7 @@
         <v>0</v>
       </c>
       <c r="C1175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1175" t="b">
         <v>0</v>
@@ -27662,7 +27665,7 @@
         <v>0</v>
       </c>
       <c r="C1176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1176" t="b">
         <v>0</v>
@@ -27679,7 +27682,7 @@
         <v>1179</v>
       </c>
       <c r="B1177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1177" t="b">
         <v>0</v>
@@ -27699,10 +27702,10 @@
         <v>1180</v>
       </c>
       <c r="B1178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1178" t="b">
         <v>0</v>
@@ -27722,7 +27725,7 @@
         <v>0</v>
       </c>
       <c r="C1179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1179" t="b">
         <v>0</v>
@@ -27742,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="C1180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1180" t="b">
         <v>0</v>
@@ -27762,7 +27765,7 @@
         <v>0</v>
       </c>
       <c r="C1181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1181" t="b">
         <v>0</v>
@@ -27785,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="D1182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1182" t="b">
         <v>0</v>
@@ -27805,7 +27808,7 @@
         <v>0</v>
       </c>
       <c r="D1183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1183" t="b">
         <v>0</v>
@@ -27862,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="C1186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1186" t="b">
         <v>0</v>
@@ -27922,7 +27925,7 @@
         <v>0</v>
       </c>
       <c r="C1189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1189" t="b">
         <v>0</v>
@@ -27959,7 +27962,7 @@
         <v>1193</v>
       </c>
       <c r="B1191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1191" t="b">
         <v>0</v>
@@ -27979,10 +27982,10 @@
         <v>1194</v>
       </c>
       <c r="B1192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1192" t="b">
         <v>0</v>
@@ -28082,7 +28085,7 @@
         <v>0</v>
       </c>
       <c r="C1197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1197" t="b">
         <v>0</v>
@@ -28102,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="C1198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1198" t="b">
         <v>0</v>
@@ -28202,10 +28205,10 @@
         <v>0</v>
       </c>
       <c r="C1203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1203" t="b">
         <v>0</v>
@@ -28245,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="D1205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1205" t="b">
         <v>0</v>
@@ -28282,7 +28285,7 @@
         <v>0</v>
       </c>
       <c r="C1207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1207" t="b">
         <v>0</v>
@@ -28302,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="C1208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1208" t="b">
         <v>0</v>
@@ -28325,7 +28328,7 @@
         <v>0</v>
       </c>
       <c r="D1209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1209" t="b">
         <v>0</v>
@@ -28345,7 +28348,7 @@
         <v>0</v>
       </c>
       <c r="D1210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1210" t="b">
         <v>0</v>
@@ -28359,7 +28362,7 @@
         <v>1213</v>
       </c>
       <c r="B1211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1211" t="b">
         <v>0</v>
@@ -28379,10 +28382,10 @@
         <v>1214</v>
       </c>
       <c r="B1212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1212" t="b">
         <v>0</v>
@@ -28402,10 +28405,10 @@
         <v>0</v>
       </c>
       <c r="C1213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1213" t="b">
         <v>0</v>
@@ -28485,7 +28488,7 @@
         <v>0</v>
       </c>
       <c r="D1217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1217" t="b">
         <v>0</v>
@@ -28502,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="C1218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1218" t="b">
         <v>0</v>
@@ -28602,7 +28605,7 @@
         <v>0</v>
       </c>
       <c r="C1223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1223" t="b">
         <v>0</v>
@@ -28611,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="F1223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:6">
@@ -28622,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="C1224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1224" t="b">
         <v>0</v>
@@ -28631,7 +28634,7 @@
         <v>0</v>
       </c>
       <c r="F1224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:6">
@@ -28639,10 +28642,10 @@
         <v>1227</v>
       </c>
       <c r="B1225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1225" t="b">
         <v>0</v>
@@ -28659,7 +28662,7 @@
         <v>1228</v>
       </c>
       <c r="B1226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1226" t="b">
         <v>0</v>
@@ -28705,7 +28708,7 @@
         <v>0</v>
       </c>
       <c r="D1228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1228" t="b">
         <v>0</v>
@@ -28745,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="D1230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1230" t="b">
         <v>0</v>
@@ -28802,7 +28805,7 @@
         <v>0</v>
       </c>
       <c r="C1233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1233" t="b">
         <v>0</v>
@@ -28822,7 +28825,7 @@
         <v>0</v>
       </c>
       <c r="C1234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1234" t="b">
         <v>0</v>
@@ -28842,7 +28845,7 @@
         <v>0</v>
       </c>
       <c r="C1235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1235" t="b">
         <v>0</v>
@@ -28862,7 +28865,7 @@
         <v>0</v>
       </c>
       <c r="C1236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1236" t="b">
         <v>0</v>
@@ -28882,7 +28885,7 @@
         <v>0</v>
       </c>
       <c r="C1237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1237" t="b">
         <v>0</v>
@@ -28942,7 +28945,7 @@
         <v>0</v>
       </c>
       <c r="C1240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1240" t="b">
         <v>0</v>
@@ -28962,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="C1241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1241" t="b">
         <v>0</v>
@@ -29062,10 +29065,10 @@
         <v>0</v>
       </c>
       <c r="C1246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1246" t="b">
         <v>0</v>
@@ -29102,10 +29105,10 @@
         <v>0</v>
       </c>
       <c r="C1248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1248" t="b">
         <v>0</v>
@@ -29122,10 +29125,10 @@
         <v>0</v>
       </c>
       <c r="C1249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1249" t="b">
         <v>0</v>
@@ -29142,10 +29145,10 @@
         <v>0</v>
       </c>
       <c r="C1250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1250" t="b">
         <v>0</v>
@@ -29262,7 +29265,7 @@
         <v>0</v>
       </c>
       <c r="C1256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1256" t="b">
         <v>0</v>
@@ -29271,6 +29274,26 @@
         <v>0</v>
       </c>
       <c r="F1256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:6">
+      <c r="A1257" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1257" t="b">
+        <v>0</v>
+      </c>
+      <c r="C1257" t="b">
+        <v>0</v>
+      </c>
+      <c r="D1257" t="b">
+        <v>0</v>
+      </c>
+      <c r="E1257" t="b">
+        <v>0</v>
+      </c>
+      <c r="F1257" t="b">
         <v>0</v>
       </c>
     </row>
